--- a/CustomLocalization-RU/Localization/RogueTech/RU/BT_Advanced_Pilots/LocalizationDef.xlsx
+++ b/CustomLocalization-RU/Localization/RogueTech/RU/BT_Advanced_Pilots/LocalizationDef.xlsx
@@ -1529,8 +1529,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
-    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1"/>
+  <cellXfs count="3">
     <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1"/>
     <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1"/>
     <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1"/>
@@ -1830,16 +1829,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E253"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A231" workbookViewId="0">
-      <selection activeCell="C261" sqref="C261"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="2" width="85.42578125" customWidth="1" style="2"/>
     <col min="3" max="3" width="73.85546875" customWidth="1" style="2"/>
-    <col min="4" max="5" width="9.140625" customWidth="1" style="2"/>
-    <col min="6" max="16384" width="9.140625" customWidth="1" style="2"/>
+    <col min="4" max="6" width="9.140625" customWidth="1" style="2"/>
+    <col min="7" max="16384" width="9.140625" customWidth="1" style="2"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -1849,7 +1848,7 @@
       <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="2" t="s">
         <v>1</v>
       </c>
       <c r="D1" s="2" t="s">
@@ -1866,7 +1865,7 @@
       <c r="B2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="2" t="s">
         <v>5</v>
       </c>
       <c r="D2" s="2" t="s">
@@ -1883,7 +1882,7 @@
       <c r="B3" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C3" s="2" t="s">
         <v>7</v>
       </c>
       <c r="D3" s="2" t="s">
@@ -1900,7 +1899,7 @@
       <c r="B4" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="C4" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D4" s="2" t="s">
@@ -1917,7 +1916,7 @@
       <c r="B5" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="C5" s="2" t="s">
         <v>1</v>
       </c>
       <c r="D5" s="2" t="s">
@@ -1934,7 +1933,7 @@
       <c r="B6" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="3" t="s">
+      <c r="C6" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D6" s="2" t="s">
@@ -1951,7 +1950,7 @@
       <c r="B7" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="3" t="s">
+      <c r="C7" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D7" s="2" t="s">
@@ -1968,7 +1967,7 @@
       <c r="B8" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C8" s="3" t="s">
+      <c r="C8" s="2" t="s">
         <v>16</v>
       </c>
       <c r="D8" s="2" t="s">
@@ -1985,7 +1984,7 @@
       <c r="B9" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="C9" s="3" t="s">
+      <c r="C9" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D9" s="2" t="s">
@@ -2002,7 +2001,7 @@
       <c r="B10" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C10" s="3" t="s">
+      <c r="C10" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D10" s="2" t="s">
@@ -2019,7 +2018,7 @@
       <c r="B11" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="C11" s="3" t="s">
+      <c r="C11" s="2" t="s">
         <v>21</v>
       </c>
       <c r="D11" s="2" t="s">
@@ -2036,7 +2035,7 @@
       <c r="B12" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="C12" s="3" t="s">
+      <c r="C12" s="2" t="s">
         <v>23</v>
       </c>
       <c r="D12" s="2" t="s">
@@ -2053,7 +2052,7 @@
       <c r="B13" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="C13" s="3" t="s">
+      <c r="C13" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D13" s="2" t="s">
@@ -2070,7 +2069,7 @@
       <c r="B14" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="C14" s="3" t="s">
+      <c r="C14" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D14" s="2" t="s">
@@ -2087,7 +2086,7 @@
       <c r="B15" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="C15" s="3" t="s">
+      <c r="C15" s="2" t="s">
         <v>21</v>
       </c>
       <c r="D15" s="2" t="s">
@@ -2104,7 +2103,7 @@
       <c r="B16" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="C16" s="3" t="s">
+      <c r="C16" s="2" t="s">
         <v>30</v>
       </c>
       <c r="D16" s="2" t="s">
@@ -2121,7 +2120,7 @@
       <c r="B17" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="C17" s="3" t="s">
+      <c r="C17" s="2" t="s">
         <v>32</v>
       </c>
       <c r="D17" s="2" t="s">
@@ -2138,7 +2137,7 @@
       <c r="B18" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="C18" s="3" t="s">
+      <c r="C18" s="2" t="s">
         <v>34</v>
       </c>
       <c r="D18" s="2" t="s">
@@ -2155,7 +2154,7 @@
       <c r="B19" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="C19" s="3" t="s">
+      <c r="C19" s="2" t="s">
         <v>36</v>
       </c>
       <c r="D19" s="2" t="s">
@@ -2172,7 +2171,7 @@
       <c r="B20" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="C20" s="3" t="s">
+      <c r="C20" s="2" t="s">
         <v>30</v>
       </c>
       <c r="D20" s="2" t="s">
@@ -2189,7 +2188,7 @@
       <c r="B21" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="C21" s="3" t="s">
+      <c r="C21" s="2" t="s">
         <v>39</v>
       </c>
       <c r="D21" s="2" t="s">
@@ -2206,7 +2205,7 @@
       <c r="B22" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="C22" s="3" t="s">
+      <c r="C22" s="2" t="s">
         <v>41</v>
       </c>
       <c r="D22" s="2" t="s">
@@ -2223,7 +2222,7 @@
       <c r="B23" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="C23" s="3" t="s">
+      <c r="C23" s="2" t="s">
         <v>43</v>
       </c>
       <c r="D23" s="2" t="s">
@@ -2240,7 +2239,7 @@
       <c r="B24" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="C24" s="3" t="s">
+      <c r="C24" s="2" t="s">
         <v>45</v>
       </c>
       <c r="D24" s="2" t="s">
@@ -2257,7 +2256,7 @@
       <c r="B25" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="C25" s="3" t="s">
+      <c r="C25" s="2" t="s">
         <v>39</v>
       </c>
       <c r="D25" s="2" t="s">
@@ -2274,7 +2273,7 @@
       <c r="B26" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="C26" s="3" t="s">
+      <c r="C26" s="2" t="s">
         <v>48</v>
       </c>
       <c r="D26" s="2" t="s">
@@ -2291,7 +2290,7 @@
       <c r="B27" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="C27" s="3" t="s">
+      <c r="C27" s="2" t="s">
         <v>50</v>
       </c>
       <c r="D27" s="2" t="s">
@@ -2308,7 +2307,7 @@
       <c r="B28" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="C28" s="3" t="s">
+      <c r="C28" s="2" t="s">
         <v>52</v>
       </c>
       <c r="D28" s="2" t="s">
@@ -2325,7 +2324,7 @@
       <c r="B29" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="C29" s="3" t="s">
+      <c r="C29" s="2" t="s">
         <v>54</v>
       </c>
       <c r="D29" s="2" t="s">
@@ -2342,7 +2341,7 @@
       <c r="B30" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="C30" s="3" t="s">
+      <c r="C30" s="2" t="s">
         <v>48</v>
       </c>
       <c r="D30" s="2" t="s">
@@ -2359,7 +2358,7 @@
       <c r="B31" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="C31" s="3" t="s">
+      <c r="C31" s="2" t="s">
         <v>57</v>
       </c>
       <c r="D31" s="2" t="s">
@@ -2376,7 +2375,7 @@
       <c r="B32" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="C32" s="3" t="s">
+      <c r="C32" s="2" t="s">
         <v>59</v>
       </c>
       <c r="D32" s="2" t="s">
@@ -2393,7 +2392,7 @@
       <c r="B33" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="C33" s="3" t="s">
+      <c r="C33" s="2" t="s">
         <v>61</v>
       </c>
       <c r="D33" s="2" t="s">
@@ -2410,7 +2409,7 @@
       <c r="B34" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="C34" s="3" t="s">
+      <c r="C34" s="2" t="s">
         <v>63</v>
       </c>
       <c r="D34" s="2" t="s">
@@ -2427,7 +2426,7 @@
       <c r="B35" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="C35" s="3" t="s">
+      <c r="C35" s="2" t="s">
         <v>57</v>
       </c>
       <c r="D35" s="2" t="s">
@@ -2444,7 +2443,7 @@
       <c r="B36" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="C36" s="3" t="s">
+      <c r="C36" s="2" t="s">
         <v>66</v>
       </c>
       <c r="D36" s="2" t="s">
@@ -2461,7 +2460,7 @@
       <c r="B37" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="C37" s="3" t="s">
+      <c r="C37" s="2" t="s">
         <v>68</v>
       </c>
       <c r="D37" s="2" t="s">
@@ -2478,7 +2477,7 @@
       <c r="B38" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="C38" s="3" t="s">
+      <c r="C38" s="2" t="s">
         <v>70</v>
       </c>
       <c r="D38" s="2" t="s">
@@ -2495,7 +2494,7 @@
       <c r="B39" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="C39" s="3" t="s">
+      <c r="C39" s="2" t="s">
         <v>72</v>
       </c>
       <c r="D39" s="2" t="s">
@@ -2512,7 +2511,7 @@
       <c r="B40" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="C40" s="3" t="s">
+      <c r="C40" s="2" t="s">
         <v>66</v>
       </c>
       <c r="D40" s="2" t="s">
@@ -2529,7 +2528,7 @@
       <c r="B41" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="C41" s="3" t="s">
+      <c r="C41" s="2" t="s">
         <v>75</v>
       </c>
       <c r="D41" s="2" t="s">
@@ -2546,7 +2545,7 @@
       <c r="B42" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="C42" s="3" t="s">
+      <c r="C42" s="2" t="s">
         <v>77</v>
       </c>
       <c r="D42" s="2" t="s">
@@ -2563,7 +2562,7 @@
       <c r="B43" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="C43" s="3" t="s">
+      <c r="C43" s="2" t="s">
         <v>79</v>
       </c>
       <c r="D43" s="2" t="s">
@@ -2580,7 +2579,7 @@
       <c r="B44" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="C44" s="3" t="s">
+      <c r="C44" s="2" t="s">
         <v>81</v>
       </c>
       <c r="D44" s="2" t="s">
@@ -2597,7 +2596,7 @@
       <c r="B45" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="C45" s="3" t="s">
+      <c r="C45" s="2" t="s">
         <v>75</v>
       </c>
       <c r="D45" s="2" t="s">
@@ -2614,7 +2613,7 @@
       <c r="B46" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="C46" s="3" t="s">
+      <c r="C46" s="2" t="s">
         <v>84</v>
       </c>
       <c r="D46" s="2" t="s">
@@ -2631,7 +2630,7 @@
       <c r="B47" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="C47" s="3" t="s">
+      <c r="C47" s="2" t="s">
         <v>86</v>
       </c>
       <c r="D47" s="2" t="s">
@@ -2648,7 +2647,7 @@
       <c r="B48" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="C48" s="3" t="s">
+      <c r="C48" s="2" t="s">
         <v>88</v>
       </c>
       <c r="D48" s="2" t="s">
@@ -2665,7 +2664,7 @@
       <c r="B49" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="C49" s="3" t="s">
+      <c r="C49" s="2" t="s">
         <v>90</v>
       </c>
       <c r="D49" s="2" t="s">
@@ -2682,7 +2681,7 @@
       <c r="B50" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="C50" s="3" t="s">
+      <c r="C50" s="2" t="s">
         <v>84</v>
       </c>
       <c r="D50" s="2" t="s">
@@ -2699,7 +2698,7 @@
       <c r="B51" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="C51" s="3" t="s">
+      <c r="C51" s="2" t="s">
         <v>93</v>
       </c>
       <c r="D51" s="2" t="s">
@@ -2716,7 +2715,7 @@
       <c r="B52" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="C52" s="3" t="s">
+      <c r="C52" s="2" t="s">
         <v>95</v>
       </c>
       <c r="D52" s="2" t="s">
@@ -2733,7 +2732,7 @@
       <c r="B53" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="C53" s="3" t="s">
+      <c r="C53" s="2" t="s">
         <v>97</v>
       </c>
       <c r="D53" s="2" t="s">
@@ -2750,7 +2749,7 @@
       <c r="B54" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="C54" s="3" t="s">
+      <c r="C54" s="2" t="s">
         <v>99</v>
       </c>
       <c r="D54" s="2" t="s">
@@ -2767,7 +2766,7 @@
       <c r="B55" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="C55" s="3" t="s">
+      <c r="C55" s="2" t="s">
         <v>93</v>
       </c>
       <c r="D55" s="2" t="s">
@@ -2784,7 +2783,7 @@
       <c r="B56" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="C56" s="3" t="s">
+      <c r="C56" s="2" t="s">
         <v>102</v>
       </c>
       <c r="D56" s="2" t="s">
@@ -2801,7 +2800,7 @@
       <c r="B57" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="C57" s="3" t="s">
+      <c r="C57" s="2" t="s">
         <v>104</v>
       </c>
       <c r="D57" s="2" t="s">
@@ -2818,7 +2817,7 @@
       <c r="B58" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="C58" s="3" t="s">
+      <c r="C58" s="2" t="s">
         <v>106</v>
       </c>
       <c r="D58" s="2" t="s">
@@ -2835,7 +2834,7 @@
       <c r="B59" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="C59" s="3" t="s">
+      <c r="C59" s="2" t="s">
         <v>108</v>
       </c>
       <c r="D59" s="2" t="s">
@@ -2852,7 +2851,7 @@
       <c r="B60" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="C60" s="3" t="s">
+      <c r="C60" s="2" t="s">
         <v>102</v>
       </c>
       <c r="D60" s="2" t="s">
@@ -2869,7 +2868,7 @@
       <c r="B61" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="C61" s="3" t="s">
+      <c r="C61" s="2" t="s">
         <v>111</v>
       </c>
       <c r="D61" s="2" t="s">
@@ -2886,7 +2885,7 @@
       <c r="B62" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="C62" s="3" t="s">
+      <c r="C62" s="2" t="s">
         <v>113</v>
       </c>
       <c r="D62" s="2" t="s">
@@ -2903,7 +2902,7 @@
       <c r="B63" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="C63" s="3" t="s">
+      <c r="C63" s="2" t="s">
         <v>115</v>
       </c>
       <c r="D63" s="2" t="s">
@@ -2920,7 +2919,7 @@
       <c r="B64" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="C64" s="3" t="s">
+      <c r="C64" s="2" t="s">
         <v>117</v>
       </c>
       <c r="D64" s="2" t="s">
@@ -2937,7 +2936,7 @@
       <c r="B65" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="C65" s="3" t="s">
+      <c r="C65" s="2" t="s">
         <v>111</v>
       </c>
       <c r="D65" s="2" t="s">
@@ -2954,7 +2953,7 @@
       <c r="B66" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="C66" s="3" t="s">
+      <c r="C66" s="2" t="s">
         <v>120</v>
       </c>
       <c r="D66" s="2" t="s">
@@ -2971,7 +2970,7 @@
       <c r="B67" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="C67" s="3" t="s">
+      <c r="C67" s="2" t="s">
         <v>122</v>
       </c>
       <c r="D67" s="2" t="s">
@@ -2988,7 +2987,7 @@
       <c r="B68" s="2" t="s">
         <v>124</v>
       </c>
-      <c r="C68" s="3" t="s">
+      <c r="C68" s="2" t="s">
         <v>124</v>
       </c>
       <c r="D68" s="2" t="s">
@@ -3005,7 +3004,7 @@
       <c r="B69" s="2" t="s">
         <v>126</v>
       </c>
-      <c r="C69" s="3" t="s">
+      <c r="C69" s="2" t="s">
         <v>126</v>
       </c>
       <c r="D69" s="2" t="s">
@@ -3022,7 +3021,7 @@
       <c r="B70" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="C70" s="3" t="s">
+      <c r="C70" s="2" t="s">
         <v>120</v>
       </c>
       <c r="D70" s="2" t="s">
@@ -3039,7 +3038,7 @@
       <c r="B71" s="2" t="s">
         <v>129</v>
       </c>
-      <c r="C71" s="3" t="s">
+      <c r="C71" s="2" t="s">
         <v>129</v>
       </c>
       <c r="D71" s="2" t="s">
@@ -3056,7 +3055,7 @@
       <c r="B72" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="C72" s="3" t="s">
+      <c r="C72" s="2" t="s">
         <v>131</v>
       </c>
       <c r="D72" s="2" t="s">
@@ -3073,7 +3072,7 @@
       <c r="B73" s="2" t="s">
         <v>133</v>
       </c>
-      <c r="C73" s="3" t="s">
+      <c r="C73" s="2" t="s">
         <v>133</v>
       </c>
       <c r="D73" s="2" t="s">
@@ -3090,7 +3089,7 @@
       <c r="B74" s="2" t="s">
         <v>135</v>
       </c>
-      <c r="C74" s="3" t="s">
+      <c r="C74" s="2" t="s">
         <v>135</v>
       </c>
       <c r="D74" s="2" t="s">
@@ -3107,7 +3106,7 @@
       <c r="B75" s="2" t="s">
         <v>129</v>
       </c>
-      <c r="C75" s="3" t="s">
+      <c r="C75" s="2" t="s">
         <v>129</v>
       </c>
       <c r="D75" s="2" t="s">
@@ -3124,7 +3123,7 @@
       <c r="B76" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="C76" s="3" t="s">
+      <c r="C76" s="2" t="s">
         <v>138</v>
       </c>
       <c r="D76" s="2" t="s">
@@ -3141,7 +3140,7 @@
       <c r="B77" s="2" t="s">
         <v>140</v>
       </c>
-      <c r="C77" s="3" t="s">
+      <c r="C77" s="2" t="s">
         <v>140</v>
       </c>
       <c r="D77" s="2" t="s">
@@ -3158,7 +3157,7 @@
       <c r="B78" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="C78" s="3" t="s">
+      <c r="C78" s="2" t="s">
         <v>142</v>
       </c>
       <c r="D78" s="2" t="s">
@@ -3175,7 +3174,7 @@
       <c r="B79" s="2" t="s">
         <v>144</v>
       </c>
-      <c r="C79" s="3" t="s">
+      <c r="C79" s="2" t="s">
         <v>144</v>
       </c>
       <c r="D79" s="2" t="s">
@@ -3192,7 +3191,7 @@
       <c r="B80" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="C80" s="3" t="s">
+      <c r="C80" s="2" t="s">
         <v>138</v>
       </c>
       <c r="D80" s="2" t="s">
@@ -3209,7 +3208,7 @@
       <c r="B81" s="2" t="s">
         <v>147</v>
       </c>
-      <c r="C81" s="3" t="s">
+      <c r="C81" s="2" t="s">
         <v>147</v>
       </c>
       <c r="D81" s="2" t="s">
@@ -3226,7 +3225,7 @@
       <c r="B82" s="2" t="s">
         <v>149</v>
       </c>
-      <c r="C82" s="3" t="s">
+      <c r="C82" s="2" t="s">
         <v>149</v>
       </c>
       <c r="D82" s="2" t="s">
@@ -3243,7 +3242,7 @@
       <c r="B83" s="2" t="s">
         <v>151</v>
       </c>
-      <c r="C83" s="3" t="s">
+      <c r="C83" s="2" t="s">
         <v>151</v>
       </c>
       <c r="D83" s="2" t="s">
@@ -3260,7 +3259,7 @@
       <c r="B84" s="2" t="s">
         <v>153</v>
       </c>
-      <c r="C84" s="3" t="s">
+      <c r="C84" s="2" t="s">
         <v>153</v>
       </c>
       <c r="D84" s="2" t="s">
@@ -3277,7 +3276,7 @@
       <c r="B85" s="2" t="s">
         <v>147</v>
       </c>
-      <c r="C85" s="3" t="s">
+      <c r="C85" s="2" t="s">
         <v>147</v>
       </c>
       <c r="D85" s="2" t="s">
@@ -3294,7 +3293,7 @@
       <c r="B86" s="2" t="s">
         <v>156</v>
       </c>
-      <c r="C86" s="3" t="s">
+      <c r="C86" s="2" t="s">
         <v>156</v>
       </c>
       <c r="D86" s="2" t="s">
@@ -3311,7 +3310,7 @@
       <c r="B87" s="2" t="s">
         <v>158</v>
       </c>
-      <c r="C87" s="3" t="s">
+      <c r="C87" s="2" t="s">
         <v>159</v>
       </c>
       <c r="D87" s="2" t="s">
@@ -3328,7 +3327,7 @@
       <c r="B88" s="2" t="s">
         <v>161</v>
       </c>
-      <c r="C88" s="3" t="s">
+      <c r="C88" s="2" t="s">
         <v>161</v>
       </c>
       <c r="D88" s="2" t="s">
@@ -3345,7 +3344,7 @@
       <c r="B89" s="2" t="s">
         <v>163</v>
       </c>
-      <c r="C89" s="3" t="s">
+      <c r="C89" s="2" t="s">
         <v>163</v>
       </c>
       <c r="D89" s="2" t="s">
@@ -3362,7 +3361,7 @@
       <c r="B90" s="2" t="s">
         <v>156</v>
       </c>
-      <c r="C90" s="3" t="s">
+      <c r="C90" s="2" t="s">
         <v>156</v>
       </c>
       <c r="D90" s="2" t="s">
@@ -3379,7 +3378,7 @@
       <c r="B91" s="2" t="s">
         <v>166</v>
       </c>
-      <c r="C91" s="3" t="s">
+      <c r="C91" s="2" t="s">
         <v>166</v>
       </c>
       <c r="D91" s="2" t="s">
@@ -3396,7 +3395,7 @@
       <c r="B92" s="2" t="s">
         <v>168</v>
       </c>
-      <c r="C92" s="3" t="s">
+      <c r="C92" s="2" t="s">
         <v>168</v>
       </c>
       <c r="D92" s="2" t="s">
@@ -3413,7 +3412,7 @@
       <c r="B93" s="2" t="s">
         <v>170</v>
       </c>
-      <c r="C93" s="3" t="s">
+      <c r="C93" s="2" t="s">
         <v>170</v>
       </c>
       <c r="D93" s="2" t="s">
@@ -3430,7 +3429,7 @@
       <c r="B94" s="2" t="s">
         <v>172</v>
       </c>
-      <c r="C94" s="3" t="s">
+      <c r="C94" s="2" t="s">
         <v>172</v>
       </c>
       <c r="D94" s="2" t="s">
@@ -3447,7 +3446,7 @@
       <c r="B95" s="2" t="s">
         <v>166</v>
       </c>
-      <c r="C95" s="3" t="s">
+      <c r="C95" s="2" t="s">
         <v>166</v>
       </c>
       <c r="D95" s="2" t="s">
@@ -3464,7 +3463,7 @@
       <c r="B96" s="2" t="s">
         <v>175</v>
       </c>
-      <c r="C96" s="3" t="s">
+      <c r="C96" s="2" t="s">
         <v>175</v>
       </c>
       <c r="D96" s="2" t="s">
@@ -3481,7 +3480,7 @@
       <c r="B97" s="2" t="s">
         <v>177</v>
       </c>
-      <c r="C97" s="3" t="s">
+      <c r="C97" s="2" t="s">
         <v>177</v>
       </c>
       <c r="D97" s="2" t="s">
@@ -3498,7 +3497,7 @@
       <c r="B98" s="2" t="s">
         <v>179</v>
       </c>
-      <c r="C98" s="3" t="s">
+      <c r="C98" s="2" t="s">
         <v>179</v>
       </c>
       <c r="D98" s="2" t="s">
@@ -3515,7 +3514,7 @@
       <c r="B99" s="2" t="s">
         <v>181</v>
       </c>
-      <c r="C99" s="3" t="s">
+      <c r="C99" s="2" t="s">
         <v>181</v>
       </c>
       <c r="D99" s="2" t="s">
@@ -3532,7 +3531,7 @@
       <c r="B100" s="2" t="s">
         <v>175</v>
       </c>
-      <c r="C100" s="3" t="s">
+      <c r="C100" s="2" t="s">
         <v>175</v>
       </c>
       <c r="D100" s="2" t="s">
@@ -3549,7 +3548,7 @@
       <c r="B101" s="2" t="s">
         <v>184</v>
       </c>
-      <c r="C101" s="3" t="s">
+      <c r="C101" s="2" t="s">
         <v>184</v>
       </c>
       <c r="D101" s="2" t="s">
@@ -3566,7 +3565,7 @@
       <c r="B102" s="2" t="s">
         <v>186</v>
       </c>
-      <c r="C102" s="3" t="s">
+      <c r="C102" s="2" t="s">
         <v>186</v>
       </c>
       <c r="D102" s="2" t="s">
@@ -3583,7 +3582,7 @@
       <c r="B103" s="2" t="s">
         <v>188</v>
       </c>
-      <c r="C103" s="3" t="s">
+      <c r="C103" s="2" t="s">
         <v>188</v>
       </c>
       <c r="D103" s="2" t="s">
@@ -3600,7 +3599,7 @@
       <c r="B104" s="2" t="s">
         <v>190</v>
       </c>
-      <c r="C104" s="3" t="s">
+      <c r="C104" s="2" t="s">
         <v>190</v>
       </c>
       <c r="D104" s="2" t="s">
@@ -3617,7 +3616,7 @@
       <c r="B105" s="2" t="s">
         <v>184</v>
       </c>
-      <c r="C105" s="3" t="s">
+      <c r="C105" s="2" t="s">
         <v>184</v>
       </c>
       <c r="D105" s="2" t="s">
@@ -3634,7 +3633,7 @@
       <c r="B106" s="2" t="s">
         <v>193</v>
       </c>
-      <c r="C106" s="3" t="s">
+      <c r="C106" s="2" t="s">
         <v>193</v>
       </c>
       <c r="D106" s="2" t="s">
@@ -3651,7 +3650,7 @@
       <c r="B107" s="2" t="s">
         <v>195</v>
       </c>
-      <c r="C107" s="3" t="s">
+      <c r="C107" s="2" t="s">
         <v>196</v>
       </c>
       <c r="D107" s="2" t="s">
@@ -3668,7 +3667,7 @@
       <c r="B108" s="2" t="s">
         <v>198</v>
       </c>
-      <c r="C108" s="3" t="s">
+      <c r="C108" s="2" t="s">
         <v>198</v>
       </c>
       <c r="D108" s="2" t="s">
@@ -3685,7 +3684,7 @@
       <c r="B109" s="2" t="s">
         <v>200</v>
       </c>
-      <c r="C109" s="3" t="s">
+      <c r="C109" s="2" t="s">
         <v>200</v>
       </c>
       <c r="D109" s="2" t="s">
@@ -3702,7 +3701,7 @@
       <c r="B110" s="2" t="s">
         <v>193</v>
       </c>
-      <c r="C110" s="3" t="s">
+      <c r="C110" s="2" t="s">
         <v>193</v>
       </c>
       <c r="D110" s="2" t="s">
@@ -3719,7 +3718,7 @@
       <c r="B111" s="2" t="s">
         <v>203</v>
       </c>
-      <c r="C111" s="3" t="s">
+      <c r="C111" s="2" t="s">
         <v>203</v>
       </c>
       <c r="D111" s="2" t="s">
@@ -3736,7 +3735,7 @@
       <c r="B112" s="2" t="s">
         <v>205</v>
       </c>
-      <c r="C112" s="3" t="s">
+      <c r="C112" s="2" t="s">
         <v>205</v>
       </c>
       <c r="D112" s="2" t="s">
@@ -3753,7 +3752,7 @@
       <c r="B113" s="2" t="s">
         <v>207</v>
       </c>
-      <c r="C113" s="3" t="s">
+      <c r="C113" s="2" t="s">
         <v>207</v>
       </c>
       <c r="D113" s="2" t="s">
@@ -3770,7 +3769,7 @@
       <c r="B114" s="2" t="s">
         <v>209</v>
       </c>
-      <c r="C114" s="3" t="s">
+      <c r="C114" s="2" t="s">
         <v>209</v>
       </c>
       <c r="D114" s="2" t="s">
@@ -3787,7 +3786,7 @@
       <c r="B115" s="2" t="s">
         <v>203</v>
       </c>
-      <c r="C115" s="3" t="s">
+      <c r="C115" s="2" t="s">
         <v>203</v>
       </c>
       <c r="D115" s="2" t="s">
@@ -3804,7 +3803,7 @@
       <c r="B116" s="2" t="s">
         <v>212</v>
       </c>
-      <c r="C116" s="3" t="s">
+      <c r="C116" s="2" t="s">
         <v>212</v>
       </c>
       <c r="D116" s="2" t="s">
@@ -3821,7 +3820,7 @@
       <c r="B117" s="2" t="s">
         <v>214</v>
       </c>
-      <c r="C117" s="3" t="s">
+      <c r="C117" s="2" t="s">
         <v>214</v>
       </c>
       <c r="D117" s="2" t="s">
@@ -3838,7 +3837,7 @@
       <c r="B118" s="2" t="s">
         <v>216</v>
       </c>
-      <c r="C118" s="3" t="s">
+      <c r="C118" s="2" t="s">
         <v>216</v>
       </c>
       <c r="D118" s="2" t="s">
@@ -3855,7 +3854,7 @@
       <c r="B119" s="2" t="s">
         <v>218</v>
       </c>
-      <c r="C119" s="3" t="s">
+      <c r="C119" s="2" t="s">
         <v>218</v>
       </c>
       <c r="D119" s="2" t="s">
@@ -3872,7 +3871,7 @@
       <c r="B120" s="2" t="s">
         <v>212</v>
       </c>
-      <c r="C120" s="3" t="s">
+      <c r="C120" s="2" t="s">
         <v>212</v>
       </c>
       <c r="D120" s="2" t="s">
@@ -3889,7 +3888,7 @@
       <c r="B121" s="2" t="s">
         <v>221</v>
       </c>
-      <c r="C121" s="3" t="s">
+      <c r="C121" s="2" t="s">
         <v>221</v>
       </c>
       <c r="D121" s="2" t="s">
@@ -3906,7 +3905,7 @@
       <c r="B122" s="2" t="s">
         <v>223</v>
       </c>
-      <c r="C122" s="3" t="s">
+      <c r="C122" s="2" t="s">
         <v>223</v>
       </c>
       <c r="D122" s="2" t="s">
@@ -3923,7 +3922,7 @@
       <c r="B123" s="2" t="s">
         <v>225</v>
       </c>
-      <c r="C123" s="3" t="s">
+      <c r="C123" s="2" t="s">
         <v>225</v>
       </c>
       <c r="D123" s="2" t="s">
@@ -3940,7 +3939,7 @@
       <c r="B124" s="2" t="s">
         <v>227</v>
       </c>
-      <c r="C124" s="3" t="s">
+      <c r="C124" s="2" t="s">
         <v>227</v>
       </c>
       <c r="D124" s="2" t="s">
@@ -3957,7 +3956,7 @@
       <c r="B125" s="2" t="s">
         <v>221</v>
       </c>
-      <c r="C125" s="3" t="s">
+      <c r="C125" s="2" t="s">
         <v>221</v>
       </c>
       <c r="D125" s="2" t="s">
@@ -3974,7 +3973,7 @@
       <c r="B126" s="2" t="s">
         <v>230</v>
       </c>
-      <c r="C126" s="3" t="s">
+      <c r="C126" s="2" t="s">
         <v>230</v>
       </c>
       <c r="D126" s="2" t="s">
@@ -3991,7 +3990,7 @@
       <c r="B127" s="2" t="s">
         <v>232</v>
       </c>
-      <c r="C127" s="3" t="s">
+      <c r="C127" s="2" t="s">
         <v>232</v>
       </c>
       <c r="D127" s="2" t="s">
@@ -4008,7 +4007,7 @@
       <c r="B128" s="2" t="s">
         <v>234</v>
       </c>
-      <c r="C128" s="3" t="s">
+      <c r="C128" s="2" t="s">
         <v>234</v>
       </c>
       <c r="D128" s="2" t="s">
@@ -4025,7 +4024,7 @@
       <c r="B129" s="2" t="s">
         <v>236</v>
       </c>
-      <c r="C129" s="3" t="s">
+      <c r="C129" s="2" t="s">
         <v>236</v>
       </c>
       <c r="D129" s="2" t="s">
@@ -4042,7 +4041,7 @@
       <c r="B130" s="2" t="s">
         <v>230</v>
       </c>
-      <c r="C130" s="3" t="s">
+      <c r="C130" s="2" t="s">
         <v>230</v>
       </c>
       <c r="D130" s="2" t="s">
@@ -4059,7 +4058,7 @@
       <c r="B131" s="2" t="s">
         <v>239</v>
       </c>
-      <c r="C131" s="3" t="s">
+      <c r="C131" s="2" t="s">
         <v>239</v>
       </c>
       <c r="D131" s="2" t="s">
@@ -4076,7 +4075,7 @@
       <c r="B132" s="2" t="s">
         <v>241</v>
       </c>
-      <c r="C132" s="3" t="s">
+      <c r="C132" s="2" t="s">
         <v>241</v>
       </c>
       <c r="D132" s="2" t="s">
@@ -4093,7 +4092,7 @@
       <c r="B133" s="2" t="s">
         <v>243</v>
       </c>
-      <c r="C133" s="3" t="s">
+      <c r="C133" s="2" t="s">
         <v>243</v>
       </c>
       <c r="D133" s="2" t="s">
@@ -4110,7 +4109,7 @@
       <c r="B134" s="2" t="s">
         <v>245</v>
       </c>
-      <c r="C134" s="3" t="s">
+      <c r="C134" s="2" t="s">
         <v>245</v>
       </c>
       <c r="D134" s="2" t="s">
@@ -4127,7 +4126,7 @@
       <c r="B135" s="2" t="s">
         <v>239</v>
       </c>
-      <c r="C135" s="3" t="s">
+      <c r="C135" s="2" t="s">
         <v>239</v>
       </c>
       <c r="D135" s="2" t="s">
@@ -4144,7 +4143,7 @@
       <c r="B136" s="2" t="s">
         <v>248</v>
       </c>
-      <c r="C136" s="3" t="s">
+      <c r="C136" s="2" t="s">
         <v>248</v>
       </c>
       <c r="D136" s="2" t="s">
@@ -4161,7 +4160,7 @@
       <c r="B137" s="2" t="s">
         <v>250</v>
       </c>
-      <c r="C137" s="3" t="s">
+      <c r="C137" s="2" t="s">
         <v>250</v>
       </c>
       <c r="D137" s="2" t="s">
@@ -4178,7 +4177,7 @@
       <c r="B138" s="2" t="s">
         <v>252</v>
       </c>
-      <c r="C138" s="3" t="s">
+      <c r="C138" s="2" t="s">
         <v>252</v>
       </c>
       <c r="D138" s="2" t="s">
@@ -4195,7 +4194,7 @@
       <c r="B139" s="2" t="s">
         <v>248</v>
       </c>
-      <c r="C139" s="3" t="s">
+      <c r="C139" s="2" t="s">
         <v>248</v>
       </c>
       <c r="D139" s="2" t="s">
@@ -4212,7 +4211,7 @@
       <c r="B140" s="2" t="s">
         <v>255</v>
       </c>
-      <c r="C140" s="3" t="s">
+      <c r="C140" s="2" t="s">
         <v>255</v>
       </c>
       <c r="D140" s="2" t="s">
@@ -4229,7 +4228,7 @@
       <c r="B141" s="2" t="s">
         <v>257</v>
       </c>
-      <c r="C141" s="3" t="s">
+      <c r="C141" s="2" t="s">
         <v>257</v>
       </c>
       <c r="D141" s="2" t="s">
@@ -4246,7 +4245,7 @@
       <c r="B142" s="2" t="s">
         <v>259</v>
       </c>
-      <c r="C142" s="3" t="s">
+      <c r="C142" s="2" t="s">
         <v>259</v>
       </c>
       <c r="D142" s="2" t="s">
@@ -4263,7 +4262,7 @@
       <c r="B143" s="2" t="s">
         <v>261</v>
       </c>
-      <c r="C143" s="3" t="s">
+      <c r="C143" s="2" t="s">
         <v>261</v>
       </c>
       <c r="D143" s="2" t="s">
@@ -4280,7 +4279,7 @@
       <c r="B144" s="2" t="s">
         <v>255</v>
       </c>
-      <c r="C144" s="3" t="s">
+      <c r="C144" s="2" t="s">
         <v>255</v>
       </c>
       <c r="D144" s="2" t="s">
@@ -4297,7 +4296,7 @@
       <c r="B145" s="2" t="s">
         <v>264</v>
       </c>
-      <c r="C145" s="3" t="s">
+      <c r="C145" s="2" t="s">
         <v>264</v>
       </c>
       <c r="D145" s="2" t="s">
@@ -4314,7 +4313,7 @@
       <c r="B146" s="2" t="s">
         <v>266</v>
       </c>
-      <c r="C146" s="3" t="s">
+      <c r="C146" s="2" t="s">
         <v>266</v>
       </c>
       <c r="D146" s="2" t="s">
@@ -4331,7 +4330,7 @@
       <c r="B147" s="2" t="s">
         <v>268</v>
       </c>
-      <c r="C147" s="3" t="s">
+      <c r="C147" s="2" t="s">
         <v>268</v>
       </c>
       <c r="D147" s="2" t="s">
@@ -4348,7 +4347,7 @@
       <c r="B148" s="2" t="s">
         <v>270</v>
       </c>
-      <c r="C148" s="3" t="s">
+      <c r="C148" s="2" t="s">
         <v>270</v>
       </c>
       <c r="D148" s="2" t="s">
@@ -4365,7 +4364,7 @@
       <c r="B149" s="2" t="s">
         <v>264</v>
       </c>
-      <c r="C149" s="3" t="s">
+      <c r="C149" s="2" t="s">
         <v>264</v>
       </c>
       <c r="D149" s="2" t="s">
@@ -4382,7 +4381,7 @@
       <c r="B150" s="2" t="s">
         <v>273</v>
       </c>
-      <c r="C150" s="3" t="s">
+      <c r="C150" s="2" t="s">
         <v>273</v>
       </c>
       <c r="D150" s="2" t="s">
@@ -4399,7 +4398,7 @@
       <c r="B151" s="2" t="s">
         <v>275</v>
       </c>
-      <c r="C151" s="3" t="s">
+      <c r="C151" s="2" t="s">
         <v>275</v>
       </c>
       <c r="D151" s="2" t="s">
@@ -4416,7 +4415,7 @@
       <c r="B152" s="2" t="s">
         <v>277</v>
       </c>
-      <c r="C152" s="3" t="s">
+      <c r="C152" s="2" t="s">
         <v>277</v>
       </c>
       <c r="D152" s="2" t="s">
@@ -4433,7 +4432,7 @@
       <c r="B153" s="2" t="s">
         <v>279</v>
       </c>
-      <c r="C153" s="3" t="s">
+      <c r="C153" s="2" t="s">
         <v>279</v>
       </c>
       <c r="D153" s="2" t="s">
@@ -4450,7 +4449,7 @@
       <c r="B154" s="2" t="s">
         <v>281</v>
       </c>
-      <c r="C154" s="3" t="s">
+      <c r="C154" s="2" t="s">
         <v>281</v>
       </c>
       <c r="D154" s="2" t="s">
@@ -4467,7 +4466,7 @@
       <c r="B155" s="2" t="s">
         <v>283</v>
       </c>
-      <c r="C155" s="3" t="s">
+      <c r="C155" s="2" t="s">
         <v>283</v>
       </c>
       <c r="D155" s="2" t="s">
@@ -4484,7 +4483,7 @@
       <c r="B156" s="2" t="s">
         <v>285</v>
       </c>
-      <c r="C156" s="3" t="s">
+      <c r="C156" s="2" t="s">
         <v>286</v>
       </c>
       <c r="D156" s="2" t="s">
@@ -4501,7 +4500,7 @@
       <c r="B157" s="2" t="s">
         <v>288</v>
       </c>
-      <c r="C157" s="3" t="s">
+      <c r="C157" s="2" t="s">
         <v>288</v>
       </c>
       <c r="D157" s="2" t="s">
@@ -4518,7 +4517,7 @@
       <c r="B158" s="2" t="s">
         <v>290</v>
       </c>
-      <c r="C158" s="3" t="s">
+      <c r="C158" s="2" t="s">
         <v>290</v>
       </c>
       <c r="D158" s="2" t="s">
@@ -4535,7 +4534,7 @@
       <c r="B159" s="2" t="s">
         <v>283</v>
       </c>
-      <c r="C159" s="3" t="s">
+      <c r="C159" s="2" t="s">
         <v>283</v>
       </c>
       <c r="D159" s="2" t="s">
@@ -4552,7 +4551,7 @@
       <c r="B160" s="2" t="s">
         <v>293</v>
       </c>
-      <c r="C160" s="3" t="s">
+      <c r="C160" s="2" t="s">
         <v>293</v>
       </c>
       <c r="D160" s="2" t="s">
@@ -4569,7 +4568,7 @@
       <c r="B161" s="2" t="s">
         <v>295</v>
       </c>
-      <c r="C161" s="3" t="s">
+      <c r="C161" s="2" t="s">
         <v>295</v>
       </c>
       <c r="D161" s="2" t="s">
@@ -4586,7 +4585,7 @@
       <c r="B162" s="2" t="s">
         <v>297</v>
       </c>
-      <c r="C162" s="3" t="s">
+      <c r="C162" s="2" t="s">
         <v>297</v>
       </c>
       <c r="D162" s="2" t="s">
@@ -4603,7 +4602,7 @@
       <c r="B163" s="2" t="s">
         <v>299</v>
       </c>
-      <c r="C163" s="3" t="s">
+      <c r="C163" s="2" t="s">
         <v>299</v>
       </c>
       <c r="D163" s="2" t="s">
@@ -4620,7 +4619,7 @@
       <c r="B164" s="2" t="s">
         <v>293</v>
       </c>
-      <c r="C164" s="3" t="s">
+      <c r="C164" s="2" t="s">
         <v>293</v>
       </c>
       <c r="D164" s="2" t="s">
@@ -4637,7 +4636,7 @@
       <c r="B165" s="2" t="s">
         <v>302</v>
       </c>
-      <c r="C165" s="3" t="s">
+      <c r="C165" s="2" t="s">
         <v>302</v>
       </c>
       <c r="D165" s="2" t="s">
@@ -4654,7 +4653,7 @@
       <c r="B166" s="2" t="s">
         <v>304</v>
       </c>
-      <c r="C166" s="3" t="s">
+      <c r="C166" s="2" t="s">
         <v>305</v>
       </c>
       <c r="D166" s="2" t="s">
@@ -4671,7 +4670,7 @@
       <c r="B167" s="2" t="s">
         <v>307</v>
       </c>
-      <c r="C167" s="3" t="s">
+      <c r="C167" s="2" t="s">
         <v>307</v>
       </c>
       <c r="D167" s="2" t="s">
@@ -4688,7 +4687,7 @@
       <c r="B168" s="2" t="s">
         <v>309</v>
       </c>
-      <c r="C168" s="3" t="s">
+      <c r="C168" s="2" t="s">
         <v>309</v>
       </c>
       <c r="D168" s="2" t="s">
@@ -4705,7 +4704,7 @@
       <c r="B169" s="2" t="s">
         <v>302</v>
       </c>
-      <c r="C169" s="3" t="s">
+      <c r="C169" s="2" t="s">
         <v>302</v>
       </c>
       <c r="D169" s="2" t="s">
@@ -4722,7 +4721,7 @@
       <c r="B170" s="2" t="s">
         <v>312</v>
       </c>
-      <c r="C170" s="3" t="s">
+      <c r="C170" s="2" t="s">
         <v>312</v>
       </c>
       <c r="D170" s="2" t="s">
@@ -4739,7 +4738,7 @@
       <c r="B171" s="2" t="s">
         <v>314</v>
       </c>
-      <c r="C171" s="3" t="s">
+      <c r="C171" s="2" t="s">
         <v>315</v>
       </c>
       <c r="D171" s="2" t="s">
@@ -4756,7 +4755,7 @@
       <c r="B172" s="2" t="s">
         <v>317</v>
       </c>
-      <c r="C172" s="3" t="s">
+      <c r="C172" s="2" t="s">
         <v>317</v>
       </c>
       <c r="D172" s="2" t="s">
@@ -4773,7 +4772,7 @@
       <c r="B173" s="2" t="s">
         <v>319</v>
       </c>
-      <c r="C173" s="3" t="s">
+      <c r="C173" s="2" t="s">
         <v>319</v>
       </c>
       <c r="D173" s="2" t="s">
@@ -4790,7 +4789,7 @@
       <c r="B174" s="2" t="s">
         <v>312</v>
       </c>
-      <c r="C174" s="3" t="s">
+      <c r="C174" s="2" t="s">
         <v>312</v>
       </c>
       <c r="D174" s="2" t="s">
@@ -4807,7 +4806,7 @@
       <c r="B175" s="2" t="s">
         <v>322</v>
       </c>
-      <c r="C175" s="3" t="s">
+      <c r="C175" s="2" t="s">
         <v>322</v>
       </c>
       <c r="D175" s="2" t="s">
@@ -4824,7 +4823,7 @@
       <c r="B176" s="2" t="s">
         <v>324</v>
       </c>
-      <c r="C176" s="3" t="s">
+      <c r="C176" s="2" t="s">
         <v>324</v>
       </c>
       <c r="D176" s="2" t="s">
@@ -4841,7 +4840,7 @@
       <c r="B177" s="2" t="s">
         <v>326</v>
       </c>
-      <c r="C177" s="3" t="s">
+      <c r="C177" s="2" t="s">
         <v>326</v>
       </c>
       <c r="D177" s="2" t="s">
@@ -4858,7 +4857,7 @@
       <c r="B178" s="2" t="s">
         <v>328</v>
       </c>
-      <c r="C178" s="3" t="s">
+      <c r="C178" s="2" t="s">
         <v>328</v>
       </c>
       <c r="D178" s="2" t="s">
@@ -4875,7 +4874,7 @@
       <c r="B179" s="2" t="s">
         <v>322</v>
       </c>
-      <c r="C179" s="3" t="s">
+      <c r="C179" s="2" t="s">
         <v>322</v>
       </c>
       <c r="D179" s="2" t="s">
@@ -4892,7 +4891,7 @@
       <c r="B180" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="C180" s="3" t="s">
+      <c r="C180" s="2" t="s">
         <v>108</v>
       </c>
       <c r="D180" s="2" t="s">
@@ -4909,7 +4908,7 @@
       <c r="B181" s="2" t="s">
         <v>332</v>
       </c>
-      <c r="C181" s="3" t="s">
+      <c r="C181" s="2" t="s">
         <v>332</v>
       </c>
       <c r="D181" s="2" t="s">
@@ -4926,7 +4925,7 @@
       <c r="B182" s="2" t="s">
         <v>334</v>
       </c>
-      <c r="C182" s="3" t="s">
+      <c r="C182" s="2" t="s">
         <v>334</v>
       </c>
       <c r="D182" s="2" t="s">
@@ -4943,7 +4942,7 @@
       <c r="B183" s="2" t="s">
         <v>336</v>
       </c>
-      <c r="C183" s="3" t="s">
+      <c r="C183" s="2" t="s">
         <v>336</v>
       </c>
       <c r="D183" s="2" t="s">
@@ -4960,7 +4959,7 @@
       <c r="B184" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="C184" s="3" t="s">
+      <c r="C184" s="2" t="s">
         <v>108</v>
       </c>
       <c r="D184" s="2" t="s">
@@ -4977,7 +4976,7 @@
       <c r="B185" s="2" t="s">
         <v>339</v>
       </c>
-      <c r="C185" s="3" t="s">
+      <c r="C185" s="2" t="s">
         <v>339</v>
       </c>
       <c r="D185" s="2" t="s">
@@ -4994,7 +4993,7 @@
       <c r="B186" s="2" t="s">
         <v>341</v>
       </c>
-      <c r="C186" s="3" t="s">
+      <c r="C186" s="2" t="s">
         <v>342</v>
       </c>
       <c r="D186" s="2" t="s">
@@ -5011,7 +5010,7 @@
       <c r="B187" s="2" t="s">
         <v>344</v>
       </c>
-      <c r="C187" s="3" t="s">
+      <c r="C187" s="2" t="s">
         <v>344</v>
       </c>
       <c r="D187" s="2" t="s">
@@ -5028,7 +5027,7 @@
       <c r="B188" s="2" t="s">
         <v>346</v>
       </c>
-      <c r="C188" s="3" t="s">
+      <c r="C188" s="2" t="s">
         <v>346</v>
       </c>
       <c r="D188" s="2" t="s">
@@ -5045,7 +5044,7 @@
       <c r="B189" s="2" t="s">
         <v>339</v>
       </c>
-      <c r="C189" s="3" t="s">
+      <c r="C189" s="2" t="s">
         <v>339</v>
       </c>
       <c r="D189" s="2" t="s">
@@ -5062,7 +5061,7 @@
       <c r="B190" s="2" t="s">
         <v>349</v>
       </c>
-      <c r="C190" s="3" t="s">
+      <c r="C190" s="2" t="s">
         <v>349</v>
       </c>
       <c r="D190" s="2" t="s">
@@ -5079,7 +5078,7 @@
       <c r="B191" s="2" t="s">
         <v>351</v>
       </c>
-      <c r="C191" s="3" t="s">
+      <c r="C191" s="2" t="s">
         <v>352</v>
       </c>
       <c r="D191" s="2" t="s">
@@ -5096,7 +5095,7 @@
       <c r="B192" s="2" t="s">
         <v>354</v>
       </c>
-      <c r="C192" s="3" t="s">
+      <c r="C192" s="2" t="s">
         <v>354</v>
       </c>
       <c r="D192" s="2" t="s">
@@ -5113,7 +5112,7 @@
       <c r="B193" s="2" t="s">
         <v>356</v>
       </c>
-      <c r="C193" s="3" t="s">
+      <c r="C193" s="2" t="s">
         <v>356</v>
       </c>
       <c r="D193" s="2" t="s">
@@ -5130,7 +5129,7 @@
       <c r="B194" s="2" t="s">
         <v>349</v>
       </c>
-      <c r="C194" s="3" t="s">
+      <c r="C194" s="2" t="s">
         <v>349</v>
       </c>
       <c r="D194" s="2" t="s">
@@ -5147,7 +5146,7 @@
       <c r="B195" s="2" t="s">
         <v>359</v>
       </c>
-      <c r="C195" s="3" t="s">
+      <c r="C195" s="2" t="s">
         <v>359</v>
       </c>
       <c r="D195" s="2" t="s">
@@ -5164,7 +5163,7 @@
       <c r="B196" s="2" t="s">
         <v>361</v>
       </c>
-      <c r="C196" s="3" t="s">
+      <c r="C196" s="2" t="s">
         <v>362</v>
       </c>
       <c r="D196" s="2" t="s">
@@ -5181,7 +5180,7 @@
       <c r="B197" s="2" t="s">
         <v>364</v>
       </c>
-      <c r="C197" s="3" t="s">
+      <c r="C197" s="2" t="s">
         <v>364</v>
       </c>
       <c r="D197" s="2" t="s">
@@ -5198,7 +5197,7 @@
       <c r="B198" s="2" t="s">
         <v>366</v>
       </c>
-      <c r="C198" s="3" t="s">
+      <c r="C198" s="2" t="s">
         <v>366</v>
       </c>
       <c r="D198" s="2" t="s">
@@ -5215,7 +5214,7 @@
       <c r="B199" s="2" t="s">
         <v>359</v>
       </c>
-      <c r="C199" s="3" t="s">
+      <c r="C199" s="2" t="s">
         <v>359</v>
       </c>
       <c r="D199" s="2" t="s">
@@ -5232,7 +5231,7 @@
       <c r="B200" s="2" t="s">
         <v>369</v>
       </c>
-      <c r="C200" s="3" t="s">
+      <c r="C200" s="2" t="s">
         <v>369</v>
       </c>
       <c r="D200" s="2" t="s">
@@ -5249,7 +5248,7 @@
       <c r="B201" s="2" t="s">
         <v>371</v>
       </c>
-      <c r="C201" s="3" t="s">
+      <c r="C201" s="2" t="s">
         <v>372</v>
       </c>
       <c r="D201" s="2" t="s">
@@ -5266,7 +5265,7 @@
       <c r="B202" s="2" t="s">
         <v>374</v>
       </c>
-      <c r="C202" s="3" t="s">
+      <c r="C202" s="2" t="s">
         <v>374</v>
       </c>
       <c r="D202" s="2" t="s">
@@ -5283,7 +5282,7 @@
       <c r="B203" s="2" t="s">
         <v>376</v>
       </c>
-      <c r="C203" s="3" t="s">
+      <c r="C203" s="2" t="s">
         <v>376</v>
       </c>
       <c r="D203" s="2" t="s">
@@ -5300,7 +5299,7 @@
       <c r="B204" s="2" t="s">
         <v>369</v>
       </c>
-      <c r="C204" s="3" t="s">
+      <c r="C204" s="2" t="s">
         <v>369</v>
       </c>
       <c r="D204" s="2" t="s">
@@ -5317,7 +5316,7 @@
       <c r="B205" s="2" t="s">
         <v>322</v>
       </c>
-      <c r="C205" s="3" t="s">
+      <c r="C205" s="2" t="s">
         <v>322</v>
       </c>
       <c r="D205" s="2" t="s">
@@ -5334,7 +5333,7 @@
       <c r="B206" s="2" t="s">
         <v>380</v>
       </c>
-      <c r="C206" s="3" t="s">
+      <c r="C206" s="2" t="s">
         <v>381</v>
       </c>
       <c r="D206" s="2" t="s">
@@ -5351,7 +5350,7 @@
       <c r="B207" s="2" t="s">
         <v>326</v>
       </c>
-      <c r="C207" s="3" t="s">
+      <c r="C207" s="2" t="s">
         <v>326</v>
       </c>
       <c r="D207" s="2" t="s">
@@ -5368,7 +5367,7 @@
       <c r="B208" s="2" t="s">
         <v>328</v>
       </c>
-      <c r="C208" s="3" t="s">
+      <c r="C208" s="2" t="s">
         <v>328</v>
       </c>
       <c r="D208" s="2" t="s">
@@ -5385,7 +5384,7 @@
       <c r="B209" s="2" t="s">
         <v>322</v>
       </c>
-      <c r="C209" s="3" t="s">
+      <c r="C209" s="2" t="s">
         <v>322</v>
       </c>
       <c r="D209" s="2" t="s">
@@ -5402,7 +5401,7 @@
       <c r="B210" s="2" t="s">
         <v>212</v>
       </c>
-      <c r="C210" s="3" t="s">
+      <c r="C210" s="2" t="s">
         <v>212</v>
       </c>
       <c r="D210" s="2" t="s">
@@ -5419,7 +5418,7 @@
       <c r="B211" s="2" t="s">
         <v>387</v>
       </c>
-      <c r="C211" s="3" t="s">
+      <c r="C211" s="2" t="s">
         <v>387</v>
       </c>
       <c r="D211" s="2" t="s">
@@ -5436,7 +5435,7 @@
       <c r="B212" s="2" t="s">
         <v>389</v>
       </c>
-      <c r="C212" s="3" t="s">
+      <c r="C212" s="2" t="s">
         <v>389</v>
       </c>
       <c r="D212" s="2" t="s">
@@ -5453,7 +5452,7 @@
       <c r="B213" s="2" t="s">
         <v>212</v>
       </c>
-      <c r="C213" s="3" t="s">
+      <c r="C213" s="2" t="s">
         <v>212</v>
       </c>
       <c r="D213" s="2" t="s">
@@ -5470,7 +5469,7 @@
       <c r="B214" s="2" t="s">
         <v>392</v>
       </c>
-      <c r="C214" s="3" t="s">
+      <c r="C214" s="2" t="s">
         <v>392</v>
       </c>
       <c r="D214" s="2" t="s">
@@ -5487,7 +5486,7 @@
       <c r="B215" s="2" t="s">
         <v>394</v>
       </c>
-      <c r="C215" s="3" t="s">
+      <c r="C215" s="2" t="s">
         <v>395</v>
       </c>
       <c r="D215" s="2" t="s">
@@ -5504,7 +5503,7 @@
       <c r="B216" s="2" t="s">
         <v>397</v>
       </c>
-      <c r="C216" s="3" t="s">
+      <c r="C216" s="2" t="s">
         <v>397</v>
       </c>
       <c r="D216" s="2" t="s">
@@ -5521,7 +5520,7 @@
       <c r="B217" s="2" t="s">
         <v>399</v>
       </c>
-      <c r="C217" s="3" t="s">
+      <c r="C217" s="2" t="s">
         <v>399</v>
       </c>
       <c r="D217" s="2" t="s">
@@ -5538,7 +5537,7 @@
       <c r="B218" s="2" t="s">
         <v>392</v>
       </c>
-      <c r="C218" s="3" t="s">
+      <c r="C218" s="2" t="s">
         <v>392</v>
       </c>
       <c r="D218" s="2" t="s">
@@ -5555,7 +5554,7 @@
       <c r="B219" s="2" t="s">
         <v>322</v>
       </c>
-      <c r="C219" s="3" t="s">
+      <c r="C219" s="2" t="s">
         <v>322</v>
       </c>
       <c r="D219" s="2" t="s">
@@ -5572,7 +5571,7 @@
       <c r="B220" s="2" t="s">
         <v>324</v>
       </c>
-      <c r="C220" s="3" t="s">
+      <c r="C220" s="2" t="s">
         <v>324</v>
       </c>
       <c r="D220" s="2" t="s">
@@ -5589,7 +5588,7 @@
       <c r="B221" s="2" t="s">
         <v>326</v>
       </c>
-      <c r="C221" s="3" t="s">
+      <c r="C221" s="2" t="s">
         <v>326</v>
       </c>
       <c r="D221" s="2" t="s">
@@ -5606,7 +5605,7 @@
       <c r="B222" s="2" t="s">
         <v>328</v>
       </c>
-      <c r="C222" s="3" t="s">
+      <c r="C222" s="2" t="s">
         <v>328</v>
       </c>
       <c r="D222" s="2" t="s">
@@ -5623,7 +5622,7 @@
       <c r="B223" s="2" t="s">
         <v>322</v>
       </c>
-      <c r="C223" s="3" t="s">
+      <c r="C223" s="2" t="s">
         <v>322</v>
       </c>
       <c r="D223" s="2" t="s">
@@ -5640,7 +5639,7 @@
       <c r="B224" s="2" t="s">
         <v>407</v>
       </c>
-      <c r="C224" s="3" t="s">
+      <c r="C224" s="2" t="s">
         <v>407</v>
       </c>
       <c r="D224" s="2" t="s">
@@ -5657,7 +5656,7 @@
       <c r="B225" s="2" t="s">
         <v>394</v>
       </c>
-      <c r="C225" s="3" t="s">
+      <c r="C225" s="2" t="s">
         <v>395</v>
       </c>
       <c r="D225" s="2" t="s">
@@ -5674,7 +5673,7 @@
       <c r="B226" s="2" t="s">
         <v>410</v>
       </c>
-      <c r="C226" s="3" t="s">
+      <c r="C226" s="2" t="s">
         <v>410</v>
       </c>
       <c r="D226" s="2" t="s">
@@ -5691,7 +5690,7 @@
       <c r="B227" s="2" t="s">
         <v>412</v>
       </c>
-      <c r="C227" s="3" t="s">
+      <c r="C227" s="2" t="s">
         <v>412</v>
       </c>
       <c r="D227" s="2" t="s">
@@ -5708,7 +5707,7 @@
       <c r="B228" s="2" t="s">
         <v>407</v>
       </c>
-      <c r="C228" s="3" t="s">
+      <c r="C228" s="2" t="s">
         <v>407</v>
       </c>
       <c r="D228" s="2" t="s">
@@ -5725,7 +5724,7 @@
       <c r="B229" s="2" t="s">
         <v>322</v>
       </c>
-      <c r="C229" s="3" t="s">
+      <c r="C229" s="2" t="s">
         <v>322</v>
       </c>
       <c r="D229" s="2" t="s">
@@ -5742,7 +5741,7 @@
       <c r="B230" s="2" t="s">
         <v>324</v>
       </c>
-      <c r="C230" s="3" t="s">
+      <c r="C230" s="2" t="s">
         <v>324</v>
       </c>
       <c r="D230" s="2" t="s">
@@ -5759,7 +5758,7 @@
       <c r="B231" s="2" t="s">
         <v>326</v>
       </c>
-      <c r="C231" s="3" t="s">
+      <c r="C231" s="2" t="s">
         <v>326</v>
       </c>
       <c r="D231" s="2" t="s">
@@ -5776,7 +5775,7 @@
       <c r="B232" s="2" t="s">
         <v>328</v>
       </c>
-      <c r="C232" s="3" t="s">
+      <c r="C232" s="2" t="s">
         <v>328</v>
       </c>
       <c r="D232" s="2" t="s">
@@ -5793,7 +5792,7 @@
       <c r="B233" s="2" t="s">
         <v>322</v>
       </c>
-      <c r="C233" s="3" t="s">
+      <c r="C233" s="2" t="s">
         <v>322</v>
       </c>
       <c r="D233" s="2" t="s">
@@ -5810,7 +5809,7 @@
       <c r="B234" s="2" t="s">
         <v>420</v>
       </c>
-      <c r="C234" s="3" t="s">
+      <c r="C234" s="2" t="s">
         <v>420</v>
       </c>
       <c r="D234" s="2" t="s">
@@ -5827,7 +5826,7 @@
       <c r="B235" s="2" t="s">
         <v>422</v>
       </c>
-      <c r="C235" s="3" t="s">
+      <c r="C235" s="2" t="s">
         <v>422</v>
       </c>
       <c r="D235" s="2" t="s">
@@ -5844,7 +5843,7 @@
       <c r="B236" s="2" t="s">
         <v>424</v>
       </c>
-      <c r="C236" s="3" t="s">
+      <c r="C236" s="2" t="s">
         <v>424</v>
       </c>
       <c r="D236" s="2" t="s">
@@ -5861,7 +5860,7 @@
       <c r="B237" s="2" t="s">
         <v>426</v>
       </c>
-      <c r="C237" s="3" t="s">
+      <c r="C237" s="2" t="s">
         <v>426</v>
       </c>
       <c r="D237" s="2" t="s">
@@ -5878,7 +5877,7 @@
       <c r="B238" s="2" t="s">
         <v>420</v>
       </c>
-      <c r="C238" s="3" t="s">
+      <c r="C238" s="2" t="s">
         <v>420</v>
       </c>
       <c r="D238" s="2" t="s">
@@ -5895,7 +5894,7 @@
       <c r="B239" s="2" t="s">
         <v>429</v>
       </c>
-      <c r="C239" s="3" t="s">
+      <c r="C239" s="2" t="s">
         <v>429</v>
       </c>
       <c r="D239" s="2" t="s">
@@ -5912,7 +5911,7 @@
       <c r="B240" s="2" t="s">
         <v>431</v>
       </c>
-      <c r="C240" s="3" t="s">
+      <c r="C240" s="2" t="s">
         <v>432</v>
       </c>
       <c r="D240" s="2" t="s">
@@ -5929,7 +5928,7 @@
       <c r="B241" s="2" t="s">
         <v>434</v>
       </c>
-      <c r="C241" s="3" t="s">
+      <c r="C241" s="2" t="s">
         <v>434</v>
       </c>
       <c r="D241" s="2" t="s">
@@ -5946,7 +5945,7 @@
       <c r="B242" s="2" t="s">
         <v>436</v>
       </c>
-      <c r="C242" s="3" t="s">
+      <c r="C242" s="2" t="s">
         <v>436</v>
       </c>
       <c r="D242" s="2" t="s">
@@ -5963,7 +5962,7 @@
       <c r="B243" s="2" t="s">
         <v>429</v>
       </c>
-      <c r="C243" s="3" t="s">
+      <c r="C243" s="2" t="s">
         <v>429</v>
       </c>
       <c r="D243" s="2" t="s">
@@ -5980,7 +5979,7 @@
       <c r="B244" s="2" t="s">
         <v>439</v>
       </c>
-      <c r="C244" s="3" t="s">
+      <c r="C244" s="2" t="s">
         <v>439</v>
       </c>
       <c r="D244" s="2" t="s">
@@ -5997,7 +5996,7 @@
       <c r="B245" s="2" t="s">
         <v>441</v>
       </c>
-      <c r="C245" s="3" t="s">
+      <c r="C245" s="2" t="s">
         <v>441</v>
       </c>
       <c r="D245" s="2" t="s">
@@ -6014,7 +6013,7 @@
       <c r="B246" s="2" t="s">
         <v>443</v>
       </c>
-      <c r="C246" s="3" t="s">
+      <c r="C246" s="2" t="s">
         <v>443</v>
       </c>
       <c r="D246" s="2" t="s">
@@ -6031,7 +6030,7 @@
       <c r="B247" s="2" t="s">
         <v>445</v>
       </c>
-      <c r="C247" s="3" t="s">
+      <c r="C247" s="2" t="s">
         <v>445</v>
       </c>
       <c r="D247" s="2" t="s">
@@ -6048,7 +6047,7 @@
       <c r="B248" s="2" t="s">
         <v>439</v>
       </c>
-      <c r="C248" s="3" t="s">
+      <c r="C248" s="2" t="s">
         <v>439</v>
       </c>
       <c r="D248" s="2" t="s">
@@ -6065,7 +6064,7 @@
       <c r="B249" s="2" t="s">
         <v>448</v>
       </c>
-      <c r="C249" s="3" t="s">
+      <c r="C249" s="2" t="s">
         <v>448</v>
       </c>
       <c r="D249" s="2" t="s">
@@ -6082,7 +6081,7 @@
       <c r="B250" s="2" t="s">
         <v>450</v>
       </c>
-      <c r="C250" s="3" t="s">
+      <c r="C250" s="2" t="s">
         <v>451</v>
       </c>
       <c r="D250" s="2" t="s">
@@ -6099,7 +6098,7 @@
       <c r="B251" s="2" t="s">
         <v>453</v>
       </c>
-      <c r="C251" s="3" t="s">
+      <c r="C251" s="2" t="s">
         <v>453</v>
       </c>
       <c r="D251" s="2" t="s">
@@ -6116,7 +6115,7 @@
       <c r="B252" s="2" t="s">
         <v>455</v>
       </c>
-      <c r="C252" s="3" t="s">
+      <c r="C252" s="2" t="s">
         <v>455</v>
       </c>
       <c r="D252" s="2" t="s">
@@ -6133,7 +6132,7 @@
       <c r="B253" s="2" t="s">
         <v>448</v>
       </c>
-      <c r="C253" s="3" t="s">
+      <c r="C253" s="2" t="s">
         <v>448</v>
       </c>
       <c r="D253" s="2" t="s">
